--- a/biology/Botanique/Anacampserotaceae/Anacampserotaceae.xlsx
+++ b/biology/Botanique/Anacampserotaceae/Anacampserotaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Anacampserotaceae (Anacampsérotacées) regroupe des plantes dicotylédones ; elle comprend environ 40 espèces réparties en 4 à 6 genres.
 Ce sont des petites plantes en rosette, succulentes, à fruits complexes et à racines tubéreuses, originaires du centre et du sud de l’Australie, de Somalie et d’Afrique du sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Anacampseros emprunté au grec ανα / ana, relatif à, -καμψ / -kamps, flexible, courbé vers, et -ερως / -eros, amour, « qui inspire l'amour », en référence au fait que la plante fut autrefois utilisée comme philtre d'amour[1],[3]. Une Orchidaceae porte un nom de même racine l'Anacamptis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Anacampseros emprunté au grec ανα / ana, relatif à, -καμψ / -kamps, flexible, courbé vers, et -ερως / -eros, amour, « qui inspire l'amour », en référence au fait que la plante fut autrefois utilisée comme philtre d'amour,. Une Orchidaceae porte un nom de même racine l'Anacamptis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981)[4] qui assigne ces plantes aux Portulacaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981) qui assigne ces plantes aux Portulacaceae.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (30 avr. 2010)[5] et NCBI  (30 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (30 avr. 2010) et NCBI  (30 avr. 2010) :
 Anacampseros (en)
 Selon Catalogue of Life
 Genre Anacampseros
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 avr. 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 avr. 2010) :
 genre Anacampseros
 Anacampseros karasmontana
 Anacampseros retusa
